--- a/document/11_収支_ER.xlsx
+++ b/document/11_収支_ER.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\h\github\specifications\document\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\h\github\specifications\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AECD30-495C-4574-9F81-E570D382F706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7674994A-D33D-403F-8121-397A81FF0BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12495" yWindow="8445" windowWidth="23745" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22365" yWindow="5130" windowWidth="13965" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>expenses.transactions(</a:t>
+            <a:t>expense.transactions(</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -951,7 +951,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>expenses.acounts(</a:t>
+            <a:t>expense.acounts(</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -1359,7 +1359,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>aname</a:t>
+            <a:t>account_name</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -1572,7 +1572,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>expenses.acount_histories</a:t>
+            <a:t>expense.acount_histories</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -1588,13 +1588,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1610,7 +1610,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6791325" y="3571875"/>
+          <a:off x="6791325" y="3810000"/>
           <a:ext cx="2333625" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1748,14 +1748,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1770,7 +1770,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6791325" y="3810000"/>
+          <a:off x="6791325" y="3571875"/>
           <a:ext cx="2333625" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1812,7 +1812,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>rnum</a:t>
+            <a:t>hid</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -1851,224 +1851,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6515100" y="3810000"/>
-          <a:ext cx="276225" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>K</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958FCD60-CDBC-3BC0-E29F-70B7D43119AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="3"/>
-          <a:endCxn id="27" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5829300" y="2500313"/>
-          <a:ext cx="685800" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DC2F84-93CD-0754-532E-7347A96954AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6791325" y="4286250"/>
-          <a:ext cx="2333625" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>tid</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE079E5-2806-6FD1-51A1-FF3D239AC3B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="4286250"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2116,34 +1898,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82572402-5B0B-FBD8-E949-32B1F4233549}"/>
+        <xdr:cNvPr id="31" name="直線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958FCD60-CDBC-3BC0-E29F-70B7D43119AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="55" idx="1"/>
-          <a:endCxn id="58" idx="3"/>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9124950" y="595313"/>
+        <a:xfrm>
+          <a:off x="5829300" y="2500313"/>
           <a:ext cx="685800" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2187,10 +1969,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F0B6C42-963B-623D-19D0-E0AAC97A663F}"/>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DC2F84-93CD-0754-532E-7347A96954AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2022,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>amount</a:t>
+            <a:t>tid</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -2267,10 +2049,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A9612F-2E3E-5476-D42E-038936DE7036}"/>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE079E5-2806-6FD1-51A1-FF3D239AC3B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,31 +2108,89 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E65CE7D-292F-2C7B-96BA-2D720DED3CDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10086975" y="952500"/>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82572402-5B0B-FBD8-E949-32B1F4233549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="1"/>
+          <a:endCxn id="58" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9124950" y="595313"/>
+          <a:ext cx="685800" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F0B6C42-963B-623D-19D0-E0AAC97A663F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="4762500"/>
           <a:ext cx="2333625" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2392,48 +2232,45 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>tdate</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>（利用日）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C10DD7-0E48-0B0F-A507-2F676EBAA21B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9810750" y="952500"/>
+            <a:t>amount</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A9612F-2E3E-5476-D42E-038936DE7036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="4762500"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2481,31 +2318,114 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="正方形/長方形 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC31E7FA-F462-D89F-E25D-791F0B0DB242}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="4048125"/>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E65CE7D-292F-2C7B-96BA-2D720DED3CDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="952500"/>
+          <a:ext cx="2333625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tdate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（利用日）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C10DD7-0E48-0B0F-A507-2F676EBAA21B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="952500"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2553,443 +2473,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288560A1-17E7-599D-E01E-73B332B8D04F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6791325" y="4048125"/>
-          <a:ext cx="2333625" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>pdate</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C675C439-F4B5-BF75-7351-B07F6AB85853}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10086975" y="1190625"/>
-          <a:ext cx="2333625" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>dorder</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>（表示順）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="正方形/長方形 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5242EF4E-96A5-4A38-8EAD-50E9232E9352}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10086975" y="1428750"/>
-          <a:ext cx="2333625" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>purpose</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>（用途）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="正方形/長方形 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE26EFB0-8C77-AA48-1333-1F0EE917CEE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10086975" y="1666875"/>
-          <a:ext cx="2333625" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>memo</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>（メモ）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="正方形/長方形 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55204188-2C63-EE76-0878-640716A07312}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10086975" y="2143125"/>
-          <a:ext cx="2333625" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>amount_spent</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>（支出金額）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="正方形/長方形 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C613D1E4-197C-7D1C-A1BF-B3647C07497C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9810750" y="1190625"/>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC31E7FA-F462-D89F-E25D-791F0B0DB242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="4048125"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3037,31 +2545,443 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288560A1-17E7-599D-E01E-73B332B8D04F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="4048125"/>
+          <a:ext cx="2333625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pdate</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C675C439-F4B5-BF75-7351-B07F6AB85853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="1190625"/>
+          <a:ext cx="2333625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dorder</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（表示順）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5242EF4E-96A5-4A38-8EAD-50E9232E9352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="1428750"/>
+          <a:ext cx="2333625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>purpose</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（用途）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE26EFB0-8C77-AA48-1333-1F0EE917CEE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="1666875"/>
+          <a:ext cx="2333625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>memo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（メモ）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55204188-2C63-EE76-0878-640716A07312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="2143125"/>
+          <a:ext cx="2333625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>amount_spent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（支出金額）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="正方形/長方形 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1933BA69-43EF-0C0D-8464-B4FF8A806963}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9810750" y="1428750"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C613D1E4-197C-7D1C-A1BF-B3647C07497C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="1190625"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3111,29 +3031,29 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="正方形/長方形 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6288A43F-DD1E-EF7B-AF23-9CE29173D870}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9810750" y="1666875"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1933BA69-43EF-0C0D-8464-B4FF8A806963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="1428750"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3183,29 +3103,29 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="正方形/長方形 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96399909-AE32-A4C4-B4DA-5A272AE01AE9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9810750" y="1905000"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6288A43F-DD1E-EF7B-AF23-9CE29173D870}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="1666875"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3253,450 +3173,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BE4F1D-BE69-D7C3-FF93-EA67A967CDF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="238125"/>
-          <a:ext cx="2609850" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>expenses.payment(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>支払</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="正方形/長方形 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D855901A-2A67-8812-703C-F9A7102FE8FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6791325" y="714375"/>
-          <a:ext cx="2333625" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>uid</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="正方形/長方形 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B9B288D-7ED3-C675-123A-85C9BDBD0360}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6791325" y="476250"/>
-          <a:ext cx="2333625" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>pid</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143962BF-117E-DA67-AAD4-1501835B3B8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6791325" y="952500"/>
-          <a:ext cx="2333625" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>pname</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>（名称）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="正方形/長方形 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BB855C-7DB0-37C8-DA8D-41BE9C8E93B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="476250"/>
-          <a:ext cx="276225" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>K</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2DB3524-3C13-1B43-E1A8-75B530BF95EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="952500"/>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96399909-AE32-A4C4-B4DA-5A272AE01AE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="1905000"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3744,31 +3245,287 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BE4F1D-BE69-D7C3-FF93-EA67A967CDF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="238125"/>
+          <a:ext cx="2609850" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>expense.payments(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>支払</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D855901A-2A67-8812-703C-F9A7102FE8FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="714375"/>
+          <a:ext cx="2333625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>uid</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B9B288D-7ED3-C675-123A-85C9BDBD0360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="476250"/>
+          <a:ext cx="2333625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pid</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C566D0-3E82-5EDC-9E28-ACDAF4292814}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6791325" y="1190625"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143962BF-117E-DA67-AAD4-1501835B3B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="952500"/>
           <a:ext cx="2333625" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3810,7 +3567,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>closing_date</a:t>
+            <a:t>pname</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -3818,7 +3575,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>（締め日）</a:t>
+            <a:t>（名称）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3829,29 +3586,109 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BB855C-7DB0-37C8-DA8D-41BE9C8E93B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="476250"/>
+          <a:ext cx="276225" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>K</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="正方形/長方形 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B298D096-7415-C818-6C50-31EBBC665AF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="1190625"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2DB3524-3C13-1B43-E1A8-75B530BF95EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="952500"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3899,31 +3736,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="正方形/長方形 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1BC24A-62A4-E552-8B04-0F7F7009B948}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10086975" y="2619375"/>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C566D0-3E82-5EDC-9E28-ACDAF4292814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="1190625"/>
           <a:ext cx="2333625" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3965,7 +3802,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>amount_received</a:t>
+            <a:t>closing_date</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -3973,7 +3810,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>（収入金額）</a:t>
+            <a:t>（締め日）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3984,29 +3821,29 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="正方形/長方形 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB12D0E-7479-3BF4-3E7D-D15EB364825B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="714375"/>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B298D096-7415-C818-6C50-31EBBC665AF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1190625"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4056,29 +3893,29 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="正方形/長方形 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018BAEE4-6DF9-3794-ED47-33C150DE1037}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10086975" y="1905000"/>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1BC24A-62A4-E552-8B04-0F7F7009B948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="2619375"/>
           <a:ext cx="2333625" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4120,7 +3957,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>pid</a:t>
+            <a:t>amount_received</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -4128,123 +3965,40 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>（支出方法）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+            <a:t>（収入金額）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="正方形/長方形 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD432E1-E416-857D-D880-E8E9BDCD372B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6791325" y="1428750"/>
-          <a:ext cx="2333625" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>payment_offset_month</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>（支払月）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="正方形/長方形 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95004AE-3D53-0ADF-3FDE-2F91F7CC438D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="1428750"/>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB12D0E-7479-3BF4-3E7D-D15EB364825B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="714375"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4292,31 +4046,114 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018BAEE4-6DF9-3794-ED47-33C150DE1037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="1905000"/>
+          <a:ext cx="2333625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pid</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（支出方法）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="正方形/長方形 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B53E5D18-BAEF-9865-E30B-9D4446BBB8FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6791325" y="1666875"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD432E1-E416-857D-D880-E8E9BDCD372B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="1428750"/>
           <a:ext cx="2333625" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4358,7 +4195,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>payment_day</a:t>
+            <a:t>payment_offset_month</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -4366,7 +4203,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>（支払日）</a:t>
+            <a:t>（支払月）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4377,29 +4214,29 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="正方形/長方形 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B13525-3389-D7F8-CE4F-CC244AFDCA34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="1666875"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95004AE-3D53-0ADF-3FDE-2F91F7CC438D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1428750"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4449,29 +4286,29 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="正方形/長方形 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F91A2C-3C28-BD43-BD92-E241903B5BC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6791325" y="1905000"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B53E5D18-BAEF-9865-E30B-9D4446BBB8FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="1666875"/>
           <a:ext cx="2333625" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4513,7 +4350,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>aid</a:t>
+            <a:t>payment_day</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -4521,98 +4358,40 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>（支出対象口座）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+            <a:t>（支払日）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="直線コネクタ 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7DB767-936D-B3FC-0240-61076F20B57A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="3"/>
-          <a:endCxn id="78" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5829300" y="2024063"/>
-          <a:ext cx="685800" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="正方形/長方形 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0B1B34-827C-9374-9D0E-C3B922C524CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="1905000"/>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B13525-3389-D7F8-CE4F-CC244AFDCA34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1666875"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4660,31 +4439,172 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F91A2C-3C28-BD43-BD92-E241903B5BC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="1905000"/>
+          <a:ext cx="2333625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>aid</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（支出対象口座）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="正方形/長方形 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7488A584-6F34-39FE-F756-17D7F48B7826}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9810750" y="2143125"/>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線コネクタ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7DB767-936D-B3FC-0240-61076F20B57A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="78" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5829300" y="2024063"/>
+          <a:ext cx="685800" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="正方形/長方形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0B1B34-827C-9374-9D0E-C3B922C524CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1905000"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4734,29 +4654,29 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="正方形/長方形 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC7D830-2991-71E1-742D-FA3DEBF602E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9810750" y="2619375"/>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7488A584-6F34-39FE-F756-17D7F48B7826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="2143125"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4804,114 +4724,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="正方形/長方形 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1B2D10-B5B6-10F7-96EA-9EFE1A220CD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10086975" y="2381250"/>
-          <a:ext cx="2333625" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>aid</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>（収入対象口座）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="正方形/長方形 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD6A55B-4991-D821-55EC-BD90A840DA30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9810750" y="2381250"/>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC7D830-2991-71E1-742D-FA3DEBF602E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="2619375"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4959,185 +4796,114 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1B2D10-B5B6-10F7-96EA-9EFE1A220CD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="2381250"/>
+          <a:ext cx="2333625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>aid</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（収入対象口座）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="直線コネクタ 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02AB9D0-40A7-6EF3-560C-3F474277E0A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="1"/>
-          <a:endCxn id="34" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9124950" y="595313"/>
-          <a:ext cx="685800" cy="3810000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="正方形/長方形 107">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5736A5CB-CE74-58ED-6EC5-4D0D20F6974C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3219450" y="3333750"/>
-          <a:ext cx="2609850" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>uid, aname </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>で</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>unique</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="正方形/長方形 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FC41C2-6DAB-4E3B-C644-E52F1C5A0878}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3219450" y="3095625"/>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="正方形/長方形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD6A55B-4991-D821-55EC-BD90A840DA30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="2381250"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5185,63 +4951,121 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直線コネクタ 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02AB9D0-40A7-6EF3-560C-3F474277E0A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="34" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9124950" y="595313"/>
+          <a:ext cx="685800" cy="4048125"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="正方形/長方形 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED843B42-4755-B78A-FBC0-DF863DFECDB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3495675" y="3095625"/>
-          <a:ext cx="2333625" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="正方形/長方形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5736A5CB-CE74-58ED-6EC5-4D0D20F6974C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="3333750"/>
+          <a:ext cx="2609850" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -5251,7 +5075,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>delflg</a:t>
+            <a:t>uid, account_name </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>unique</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -5265,111 +5105,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="正方形/長方形 110">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F199C4D-7734-44B6-9E38-3EE2C7387793}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6791325" y="4762500"/>
-          <a:ext cx="2333625" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>delflg</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="正方形/長方形 111">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB71B6A-F33D-DFD4-50C5-FF0A3FD41AD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="4762500"/>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="正方形/長方形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FC41C2-6DAB-4E3B-C644-E52F1C5A0878}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="3095625"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5417,31 +5177,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="正方形/長方形 112">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583ABD19-C8C2-EDD5-ACC0-682DB3972FF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6791325" y="2143125"/>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="正方形/長方形 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED843B42-4755-B78A-FBC0-DF863DFECDB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="3095625"/>
           <a:ext cx="2333625" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5483,7 +5243,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>deldate</a:t>
+            <a:t>is_deleted</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -5497,31 +5257,111 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="正方形/長方形 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F199C4D-7734-44B6-9E38-3EE2C7387793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="5000625"/>
+          <a:ext cx="2333625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>delflg</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="正方形/長方形 113">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B762AD6-26CA-B8AA-DA28-BA97685936AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="2143125"/>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="正方形/長方形 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB71B6A-F33D-DFD4-50C5-FF0A3FD41AD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="5000625"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5569,63 +5409,63 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="正方形/長方形 117">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2E8FF5-B851-74E5-4D8E-4832C2BCB292}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="2381250"/>
-          <a:ext cx="2609850" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="正方形/長方形 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583ABD19-C8C2-EDD5-ACC0-682DB3972FF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="2143125"/>
+          <a:ext cx="2333625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -5635,23 +5475,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>uid, pname </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>で</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>unique</a:t>
+            <a:t>deldate</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -5665,169 +5489,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="直線コネクタ 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6B5CAF-293F-4135-8D7F-EC6A71C31CC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="92" idx="1"/>
-          <a:endCxn id="16" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5829300" y="2500313"/>
-          <a:ext cx="3981450" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="正方形/長方形 118">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468EB1F7-DDAF-0FFF-DAB8-DF99273FCD8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10086975" y="2857500"/>
-          <a:ext cx="2333625" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>delflg</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="正方形/長方形 119">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B97DCC-DF95-5350-812A-9A20DF2058F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9810750" y="2857500"/>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="正方形/長方形 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B762AD6-26CA-B8AA-DA28-BA97685936AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="2143125"/>
           <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5875,6 +5561,312 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="正方形/長方形 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2E8FF5-B851-74E5-4D8E-4832C2BCB292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="2381250"/>
+          <a:ext cx="2609850" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>uid, pname </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>unique</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6B5CAF-293F-4135-8D7F-EC6A71C31CC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="1"/>
+          <a:endCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5829300" y="2500313"/>
+          <a:ext cx="3981450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="正方形/長方形 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468EB1F7-DDAF-0FFF-DAB8-DF99273FCD8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="2857500"/>
+          <a:ext cx="2333625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>delflg</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="正方形/長方形 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B97DCC-DF95-5350-812A-9A20DF2058F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="2857500"/>
+          <a:ext cx="276225" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -5975,6 +5967,158 @@
             </a:rPr>
             <a:t>unique</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1B8740-7F8B-68B4-6D2F-708BE2ADD081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="4286250"/>
+          <a:ext cx="2333625" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dorder</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8729D556-59F6-1F1B-D445-202FE5722119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="4286250"/>
+          <a:ext cx="276225" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -6253,8 +6397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/document/11_収支_ER.xlsx
+++ b/document/11_収支_ER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\h\github\specifications\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7674994A-D33D-403F-8121-397A81FF0BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D92E121-D363-4AAD-ACDE-CCB35D2F0A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22365" yWindow="5130" windowWidth="13965" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15225" yWindow="1155" windowWidth="16905" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -951,7 +951,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>expense.acounts(</a:t>
+            <a:t>expense.accounts(</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -1572,7 +1572,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>expense.acount_histories</a:t>
+            <a:t>expense.account_histories</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -2384,7 +2384,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>tdate</a:t>
+            <a:t>transaction_date</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -2611,7 +2611,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>pdate</a:t>
+            <a:t>payment_date</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -3567,7 +3567,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>pname</a:t>
+            <a:t>payment_name</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -3802,7 +3802,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>closing_date</a:t>
+            <a:t>closing_day</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -5323,7 +5323,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>delflg</a:t>
+            <a:t>is_deleted</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -5475,7 +5475,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>deldate</a:t>
+            <a:t>deldated_at</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -5781,7 +5781,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>delflg</a:t>
+            <a:t>is_deleted</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -6397,8 +6397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
